--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_T45_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_T45_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3342080079727115</v>
+        <v>0.3341370637833943</v>
       </c>
       <c r="C2">
-        <v>0.8001272719199065</v>
+        <v>0.5466446010724924</v>
       </c>
       <c r="D2">
-        <v>1.057948689255649</v>
+        <v>0.3940544821317493</v>
       </c>
       <c r="E2">
-        <v>1.02856632710567</v>
+        <v>0.6277375901853809</v>
       </c>
       <c r="F2">
-        <v>0.9994115000724915</v>
+        <v>0.5468263669620367</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2715251256614695</v>
+        <v>0.1764647876375574</v>
       </c>
       <c r="C3">
-        <v>0.5749987921201453</v>
+        <v>0.4397909425088788</v>
       </c>
       <c r="D3">
-        <v>0.6574421919879687</v>
+        <v>0.3030744539125594</v>
       </c>
       <c r="E3">
-        <v>0.8108280902805284</v>
+        <v>0.5505219831328804</v>
       </c>
       <c r="F3">
-        <v>0.7861631834124684</v>
+        <v>0.5375226015493471</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1126313932437445</v>
+        <v>0.2016701448718926</v>
       </c>
       <c r="C4">
-        <v>0.4526599150000412</v>
+        <v>0.3903364767990596</v>
       </c>
       <c r="D4">
-        <v>0.4170638627520434</v>
+        <v>0.2840208244252586</v>
       </c>
       <c r="E4">
-        <v>0.645804817845178</v>
+        <v>0.5329360415896627</v>
       </c>
       <c r="F4">
-        <v>0.6554781911006021</v>
+        <v>0.5094833745067471</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2541178104058748</v>
+        <v>0.3707750704723587</v>
       </c>
       <c r="C5">
-        <v>0.4548235677275672</v>
+        <v>0.3719438412346756</v>
       </c>
       <c r="D5">
-        <v>0.357578812029527</v>
+        <v>0.1930669668093154</v>
       </c>
       <c r="E5">
-        <v>0.5979789394531608</v>
+        <v>0.4393938629627357</v>
       </c>
       <c r="F5">
-        <v>0.5590496225693991</v>
+        <v>0.2440568155285322</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3625344086844117</v>
+        <v>0.3163821704670755</v>
       </c>
       <c r="C6">
-        <v>0.3625344086844117</v>
+        <v>0.3163821704670755</v>
       </c>
       <c r="D6">
-        <v>0.1936168257130608</v>
+        <v>0.1380687648287419</v>
       </c>
       <c r="E6">
-        <v>0.4400191197130652</v>
+        <v>0.3715760552413757</v>
       </c>
       <c r="F6">
-        <v>0.2581229529138574</v>
+        <v>0.2022175558364308</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3044989716643398</v>
+        <v>0.3236369919384329</v>
       </c>
       <c r="C7">
-        <v>0.3044989716643398</v>
+        <v>0.3236369919384329</v>
       </c>
       <c r="D7">
-        <v>0.1348154283086344</v>
+        <v>0.1436765385716536</v>
       </c>
       <c r="E7">
-        <v>0.3671722052506622</v>
+        <v>0.3790468817595702</v>
       </c>
       <c r="F7">
-        <v>0.212917691553823</v>
+        <v>0.2053783638939465</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3319890590706304</v>
+        <v>0.3336901046889824</v>
       </c>
       <c r="C8">
-        <v>0.3319890590706304</v>
+        <v>0.3404581697164374</v>
       </c>
       <c r="D8">
-        <v>0.1468494055944594</v>
+        <v>0.152137479526204</v>
       </c>
       <c r="E8">
-        <v>0.3832093495655597</v>
+        <v>0.3900480477148989</v>
       </c>
       <c r="F8">
-        <v>0.1992119292935162</v>
+        <v>0.2109417676443862</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.333398904683986</v>
+        <v>0.3630110268050817</v>
       </c>
       <c r="C9">
-        <v>0.3399377628279546</v>
+        <v>0.3630110268050817</v>
       </c>
       <c r="D9">
-        <v>0.1517941216966595</v>
+        <v>0.1611799638335552</v>
       </c>
       <c r="E9">
-        <v>0.3896076509729494</v>
+        <v>0.4014722454087645</v>
       </c>
       <c r="F9">
-        <v>0.2105558670468018</v>
+        <v>0.1798423033566436</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3614593346982711</v>
+        <v>0.3449376891861548</v>
       </c>
       <c r="C10">
-        <v>0.3614593346982711</v>
+        <v>0.3449376891861548</v>
       </c>
       <c r="D10">
-        <v>0.1605564165475934</v>
+        <v>0.1503712668170814</v>
       </c>
       <c r="E10">
-        <v>0.4006949170473633</v>
+        <v>0.3877773418046514</v>
       </c>
       <c r="F10">
-        <v>0.1813668175212442</v>
+        <v>0.1867537219501101</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3457552520087644</v>
+        <v>0.3563398907253821</v>
       </c>
       <c r="C11">
-        <v>0.3457552520087644</v>
+        <v>0.3563398907253821</v>
       </c>
       <c r="D11">
-        <v>0.1504834501066176</v>
+        <v>0.1562081803353234</v>
       </c>
       <c r="E11">
-        <v>0.3879219639394211</v>
+        <v>0.3952318058245355</v>
       </c>
       <c r="F11">
-        <v>0.1854027322553479</v>
+        <v>0.1813389655859693</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_T45_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_T45_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3341370637833943</v>
+        <v>0.3342080079727115</v>
       </c>
       <c r="C2">
-        <v>0.5466446010724924</v>
+        <v>0.8001272719199065</v>
       </c>
       <c r="D2">
-        <v>0.3940544821317493</v>
+        <v>1.057948689255649</v>
       </c>
       <c r="E2">
-        <v>0.6277375901853809</v>
+        <v>1.02856632710567</v>
       </c>
       <c r="F2">
-        <v>0.5468263669620367</v>
+        <v>0.9994115000724915</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1764647876375574</v>
+        <v>0.2715251256614695</v>
       </c>
       <c r="C3">
-        <v>0.4397909425088788</v>
+        <v>0.5749987921201453</v>
       </c>
       <c r="D3">
-        <v>0.3030744539125594</v>
+        <v>0.6574421919879687</v>
       </c>
       <c r="E3">
-        <v>0.5505219831328804</v>
+        <v>0.8108280902805284</v>
       </c>
       <c r="F3">
-        <v>0.5375226015493471</v>
+        <v>0.7861631834124684</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2016701448718926</v>
+        <v>0.1126313932437445</v>
       </c>
       <c r="C4">
-        <v>0.3903364767990596</v>
+        <v>0.4526599150000412</v>
       </c>
       <c r="D4">
-        <v>0.2840208244252586</v>
+        <v>0.4170638627520434</v>
       </c>
       <c r="E4">
-        <v>0.5329360415896627</v>
+        <v>0.645804817845178</v>
       </c>
       <c r="F4">
-        <v>0.5094833745067471</v>
+        <v>0.6554781911006021</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3707750704723587</v>
+        <v>0.2541178104058748</v>
       </c>
       <c r="C5">
-        <v>0.3719438412346756</v>
+        <v>0.4548235677275672</v>
       </c>
       <c r="D5">
-        <v>0.1930669668093154</v>
+        <v>0.357578812029527</v>
       </c>
       <c r="E5">
-        <v>0.4393938629627357</v>
+        <v>0.5979789394531608</v>
       </c>
       <c r="F5">
-        <v>0.2440568155285322</v>
+        <v>0.5590496225693991</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3163821704670755</v>
+        <v>0.3625344086844117</v>
       </c>
       <c r="C6">
-        <v>0.3163821704670755</v>
+        <v>0.3625344086844117</v>
       </c>
       <c r="D6">
-        <v>0.1380687648287419</v>
+        <v>0.1936168257130608</v>
       </c>
       <c r="E6">
-        <v>0.3715760552413757</v>
+        <v>0.4400191197130652</v>
       </c>
       <c r="F6">
-        <v>0.2022175558364308</v>
+        <v>0.2581229529138574</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3236369919384329</v>
+        <v>0.3044989716643398</v>
       </c>
       <c r="C7">
-        <v>0.3236369919384329</v>
+        <v>0.3044989716643398</v>
       </c>
       <c r="D7">
-        <v>0.1436765385716536</v>
+        <v>0.1348154283086344</v>
       </c>
       <c r="E7">
-        <v>0.3790468817595702</v>
+        <v>0.3671722052506622</v>
       </c>
       <c r="F7">
-        <v>0.2053783638939465</v>
+        <v>0.212917691553823</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3336901046889824</v>
+        <v>0.3319890590706304</v>
       </c>
       <c r="C8">
-        <v>0.3404581697164374</v>
+        <v>0.3319890590706304</v>
       </c>
       <c r="D8">
-        <v>0.152137479526204</v>
+        <v>0.1468494055944594</v>
       </c>
       <c r="E8">
-        <v>0.3900480477148989</v>
+        <v>0.3832093495655597</v>
       </c>
       <c r="F8">
-        <v>0.2109417676443862</v>
+        <v>0.1992119292935162</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3630110268050817</v>
+        <v>0.333398904683986</v>
       </c>
       <c r="C9">
-        <v>0.3630110268050817</v>
+        <v>0.3399377628279546</v>
       </c>
       <c r="D9">
-        <v>0.1611799638335552</v>
+        <v>0.1517941216966595</v>
       </c>
       <c r="E9">
-        <v>0.4014722454087645</v>
+        <v>0.3896076509729494</v>
       </c>
       <c r="F9">
-        <v>0.1798423033566436</v>
+        <v>0.2105558670468018</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3449376891861548</v>
+        <v>0.3614593346982711</v>
       </c>
       <c r="C10">
-        <v>0.3449376891861548</v>
+        <v>0.3614593346982711</v>
       </c>
       <c r="D10">
-        <v>0.1503712668170814</v>
+        <v>0.1605564165475934</v>
       </c>
       <c r="E10">
-        <v>0.3877773418046514</v>
+        <v>0.4006949170473633</v>
       </c>
       <c r="F10">
-        <v>0.1867537219501101</v>
+        <v>0.1813668175212442</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3563398907253821</v>
+        <v>0.3457552520087644</v>
       </c>
       <c r="C11">
-        <v>0.3563398907253821</v>
+        <v>0.3457552520087644</v>
       </c>
       <c r="D11">
-        <v>0.1562081803353234</v>
+        <v>0.1504834501066176</v>
       </c>
       <c r="E11">
-        <v>0.3952318058245355</v>
+        <v>0.3879219639394211</v>
       </c>
       <c r="F11">
-        <v>0.1813389655859693</v>
+        <v>0.1854027322553479</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
